--- a/data/france/carlab-annuaire-variable-en.xlsx
+++ b/data/france/carlab-annuaire-variable-en.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allianzms-my.sharepoint.com/personal/clariza_lu_allianz_com/Documents/Documents/GitHub/DataScientistCO2/data/france/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{29D6DC3B-66DE-4878-ACAD-8A3B0DA35E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CD3A364-9D6A-403D-B822-746A5F33B689}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{29D6DC3B-66DE-4878-ACAD-8A3B0DA35E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D1EBD8-5DD0-40ED-8022-7F89AE8E54F3}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
   <si>
     <t>Field Name</t>
   </si>
@@ -212,9 +225,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>File Year</t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -321,13 +331,121 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>New Field Name</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>CO2_NEDC</t>
+  </si>
+  <si>
+    <t>Data Collection Year</t>
+  </si>
+  <si>
+    <t>GROUPE</t>
+  </si>
+  <si>
+    <t>MARQUE</t>
+  </si>
+  <si>
+    <t>MODELE VERSION</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINE               </t>
+  </si>
+  <si>
+    <t>ENERGIE</t>
+  </si>
+  <si>
+    <t>puissance fiscale</t>
+  </si>
+  <si>
+    <t>puissance reelle</t>
+  </si>
+  <si>
+    <t>bv</t>
+  </si>
+  <si>
+    <t>urb</t>
+  </si>
+  <si>
+    <t>ex-urb</t>
+  </si>
+  <si>
+    <t>mixte</t>
+  </si>
+  <si>
+    <t>IMMAT</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>2002;2003</t>
+  </si>
+  <si>
+    <t>Marques</t>
+  </si>
+  <si>
+    <t>Modèles, Versions</t>
+  </si>
+  <si>
+    <t>CARBURANT</t>
+  </si>
+  <si>
+    <t>Puiss Administrative</t>
+  </si>
+  <si>
+    <t>Puissance max</t>
+  </si>
+  <si>
+    <t>2001;2004</t>
+  </si>
+  <si>
+    <t>Conso urb</t>
+  </si>
+  <si>
+    <t>Conso ex-urb</t>
+  </si>
+  <si>
+    <t>Conso mixte</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2002;2003;2005</t>
+  </si>
+  <si>
+    <t>2001;2002;2003;2004;2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +474,35 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -418,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -433,6 +573,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,437 +887,1025 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G27"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
+        <v>2002</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>2001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>2004</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>2001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>2004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>2002</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>2002</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>2001</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>2004</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>2001</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>2001</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>2004</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <v>2004</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>2001</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>2004</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41">
+        <v>2001</v>
+      </c>
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>2004</v>
+      </c>
+      <c r="G43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45">
+        <v>2001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47">
+        <v>2004</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C57">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C59">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="C60">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D60" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13">
+        <v>2002</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13">
+        <v>2004</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1182,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4E2B8E-4FF7-4A36-BA7D-CD494E47D161}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,31 +1931,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -1228,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E2" s="5">
         <v>5916</v>
@@ -1246,7 +1984,7 @@
         <v>54</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.25">
@@ -1257,10 +1995,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5">
         <v>5916</v>
@@ -1275,7 +2013,7 @@
         <v>2187</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
@@ -1286,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5">
         <v>5916</v>
@@ -1304,7 +2042,7 @@
         <v>3623</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="66" x14ac:dyDescent="0.25">
@@ -1315,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5">
         <v>5916</v>
@@ -1333,7 +2071,7 @@
         <v>3557</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1344,10 +2082,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5">
         <v>5916</v>
@@ -1362,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1373,10 +2111,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5">
         <v>5916</v>
@@ -1391,7 +2129,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1402,10 +2140,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E8" s="5">
         <v>5916</v>
@@ -1420,7 +2158,7 @@
         <v>194</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1431,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5">
         <v>5916</v>
@@ -1449,7 +2187,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1460,10 +2198,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5">
         <v>5916</v>
@@ -1478,7 +2216,7 @@
         <v>190</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1489,10 +2227,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5">
         <v>5916</v>
@@ -1507,7 +2245,7 @@
         <v>104</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1518,10 +2256,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5">
         <v>5916</v>
@@ -1536,7 +2274,7 @@
         <v>135</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1547,10 +2285,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="5">
         <v>5916</v>
@@ -1565,7 +2303,7 @@
         <v>246</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
@@ -1576,10 +2314,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5">
         <v>5916</v>
